--- a/docker.xlsx
+++ b/docker.xlsx
@@ -450,7 +450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,6 +493,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -712,7 +716,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.33"/>
@@ -807,10 +811,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B31"/>
+  <dimension ref="A2:B33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="18.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,6 +1012,9 @@
       <c r="B31" s="6" t="s">
         <v>82</v>
       </c>
+    </row>
+    <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1031,7 +1038,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.07"/>
@@ -1091,7 +1098,7 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.31"/>
@@ -1134,7 +1141,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.82"/>
   </cols>

--- a/docker.xlsx
+++ b/docker.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="docker" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Dockerfile_image_command" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="docker-container" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="FARGATE" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="docker-compose" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="PG_DUMP" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t xml:space="preserve">docker run image</t>
   </si>
@@ -95,6 +96,15 @@
   </si>
   <si>
     <t xml:space="preserve">docker run -p 5007:5007 flask_restapi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker network ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker volume ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker rmi image_id</t>
   </si>
   <si>
     <t xml:space="preserve">docker build .</t>
@@ -146,6 +156,13 @@
     <t xml:space="preserve">docker image prune -a</t>
   </si>
   <si>
+    <t xml:space="preserve">docker image rm 6df259f38c97 0e403e3816e8 88fe05822640 -f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker build -t fargate_aws -f Dockerfile.prod .
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">docker container COMMAND</t>
   </si>
   <si>
@@ -287,6 +304,9 @@
   </si>
   <si>
     <t xml:space="preserve">get into bash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> docker-compose exec web python manage.py migrate –noinput</t>
   </si>
   <si>
     <t xml:space="preserve">flask run</t>
@@ -335,6 +355,44 @@
   </si>
   <si>
     <t xml:space="preserve">docker compose down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker-compose build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose -f docker-compose.prod.yml up -d –build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose -f docker-compose.prod.yml up –build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose -f docker-compose.prod.yml down -v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose -f docker-compose.prod.yml exec web python manage.py migrate –noinput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose down -v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose -f docker-compose.prod.yml build
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose rm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker exec -t &lt;postgres-container-name&gt; pg_dump --no-owner -U &lt;db-username&gt; &lt;db-name&gt; &gt; file-name-to-backup-to.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker exec -t 0250e053f8b8 pg_dump --no-owner -U postgres codex_db &gt; /home/lenovo/Documents/codex_db.dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker exec -t 0250e053f8b8 pg_dumpall -c -U postgres &gt;/home/lenovo/Documents/dump_`date +%d-%m-%Y"_"%H_%M_%S`.sql</t>
   </si>
 </sst>
 </file>
@@ -450,7 +508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,10 +551,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -576,10 +630,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B31"/>
+  <dimension ref="A3:B36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,6 +746,21 @@
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -710,13 +779,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:B19"/>
+  <dimension ref="A3:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.33"/>
@@ -724,23 +793,23 @@
   <sheetData>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,51 +817,76 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +905,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B33"/>
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="18.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -826,7 +920,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,187 +928,202 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="11"/>
+      <c r="A33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1038,7 +1147,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.07"/>
@@ -1046,34 +1155,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1207,7 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.31"/>
@@ -1106,17 +1215,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1135,25 +1244,125 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.8"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.04"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
